--- a/media/SLICE/MIS/FEB 22/SLICE MASTER FILE.xlsx
+++ b/media/SLICE/MIS/FEB 22/SLICE MASTER FILE.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RAJENDER KUMAR VERMA</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GIRJESH KUMAR</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6686,7 +6686,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7492,7 +7492,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7592,7 +7592,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ARVIND KUMAR</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -8444,7 +8444,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8646,7 +8646,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GURPREET SINGH</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8900,7 +8900,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -9102,7 +9102,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -9254,7 +9254,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RAJENDER KUMAR VERMA</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9558,7 +9558,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -10062,7 +10062,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -10266,7 +10266,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ARVIND KUMAR</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -10518,7 +10518,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10772,7 +10772,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10822,7 +10822,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10872,7 +10872,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -11226,7 +11226,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -11380,7 +11380,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -11532,7 +11532,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11736,7 +11736,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11838,7 +11838,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11938,7 +11938,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -12142,7 +12142,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GURPREET SINGH</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -12192,7 +12192,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -12242,7 +12242,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -12394,7 +12394,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -12444,7 +12444,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -12594,7 +12594,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12744,7 +12744,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -13100,7 +13100,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -13150,7 +13150,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -13250,7 +13250,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -13402,7 +13402,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -13452,7 +13452,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -13502,7 +13502,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ARVIND KUMAR</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -13602,7 +13602,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -13758,7 +13758,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -13808,7 +13808,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -13860,7 +13860,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -13962,7 +13962,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -14014,7 +14014,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -14170,7 +14170,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GURPREET SINGH</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -14370,7 +14370,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -14472,7 +14472,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -14522,7 +14522,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -14622,7 +14622,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -14722,7 +14722,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -14774,7 +14774,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -14826,7 +14826,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -14876,7 +14876,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -14976,7 +14976,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -15028,7 +15028,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -15080,7 +15080,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -15182,7 +15182,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -15286,7 +15286,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -15338,7 +15338,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -15488,7 +15488,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -15638,7 +15638,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -15690,7 +15690,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -15790,7 +15790,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>GIRJESH KUMAR</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -15842,7 +15842,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -15942,7 +15942,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -15992,7 +15992,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -16042,7 +16042,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -16092,7 +16092,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -16142,7 +16142,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -16242,7 +16242,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -16292,7 +16292,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -16342,7 +16342,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -16392,7 +16392,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -16492,7 +16492,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -16594,7 +16594,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -16644,7 +16644,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -16694,7 +16694,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -16746,7 +16746,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -16798,7 +16798,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -16998,7 +16998,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -17048,7 +17048,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -17202,7 +17202,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -17252,7 +17252,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -17302,7 +17302,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -17354,7 +17354,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RAJENDER KUMAR VERMA</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -17454,7 +17454,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -17754,7 +17754,7 @@
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -17804,7 +17804,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -17854,7 +17854,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>RAJENDER KUMAR VERMA</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -17956,7 +17956,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -18008,7 +18008,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SURESH</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
@@ -18158,7 +18158,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -18208,7 +18208,7 @@
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -18260,7 +18260,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -18312,7 +18312,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
@@ -18362,7 +18362,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -18414,7 +18414,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -18516,7 +18516,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -18568,7 +18568,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -18618,7 +18618,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -18720,7 +18720,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -18770,7 +18770,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -18822,7 +18822,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -18922,7 +18922,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -18972,7 +18972,7 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -19072,7 +19072,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -19122,7 +19122,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>SHAKEEL</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -19172,7 +19172,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -19274,7 +19274,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -19326,7 +19326,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
@@ -19526,7 +19526,7 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
@@ -19578,7 +19578,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -19630,7 +19630,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -19680,7 +19680,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
@@ -19730,7 +19730,7 @@
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
@@ -19780,7 +19780,7 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
@@ -19882,7 +19882,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -19982,7 +19982,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -20032,7 +20032,7 @@
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -20082,7 +20082,7 @@
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>PRAMOD-JAIPUR</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -20132,7 +20132,7 @@
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -20184,7 +20184,7 @@
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
@@ -20234,7 +20234,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -20284,7 +20284,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -20334,7 +20334,7 @@
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -20384,7 +20384,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -20434,7 +20434,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>NO FOS</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
